--- a/inst/results/data_contam/PAH/general_eval_PAH_dw.xlsx
+++ b/inst/results/data_contam/PAH/general_eval_PAH_dw.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -558,4 +559,1320 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ESTUARY</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PARAMETRE_LIBELLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>break_dates</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_p_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>last_slope</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>short_last_trend</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EAC_OSPAR_ng_gdw</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EQS_VGE_ng_gww</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>median_1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>median_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>long_term_trend</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1998.250000000258</v>
+      </c>
+      <c r="D2">
+        <v>0.1105152583878463</v>
+      </c>
+      <c r="E2">
+        <v>-0.27795</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.394</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>9.545</v>
+      </c>
+      <c r="K2">
+        <v>8.249000000000001</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>2013.327989501731</v>
+      </c>
+      <c r="D3">
+        <v>0.4145617730512463</v>
+      </c>
+      <c r="E3">
+        <v>0.43174</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.00665</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>16.36</v>
+      </c>
+      <c r="K3">
+        <v>7.669</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>2011.999956919248</v>
+      </c>
+      <c r="D4">
+        <v>0.6878843369583573</v>
+      </c>
+      <c r="E4">
+        <v>0.52276</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>52.73</v>
+      </c>
+      <c r="K4">
+        <v>23.37</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2013.000202366099</v>
+      </c>
+      <c r="D5">
+        <v>0.2606021462717063</v>
+      </c>
+      <c r="E5">
+        <v>-0.23342</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.2891</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2001.593091030837</v>
+      </c>
+      <c r="D6">
+        <v>0.02454747860055425</v>
+      </c>
+      <c r="E6">
+        <v>-0.10121</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>0.0625</v>
+      </c>
+      <c r="K6">
+        <v>0.2758</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>2004.999629702628</v>
+      </c>
+      <c r="D7">
+        <v>0.047340441717313</v>
+      </c>
+      <c r="E7">
+        <v>-0.57358</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="J7">
+        <v>0.5583</v>
+      </c>
+      <c r="K7">
+        <v>1.463</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>2001.138442072049</v>
+      </c>
+      <c r="D8">
+        <v>0.03463788907125066</v>
+      </c>
+      <c r="E8">
+        <v>0.061766</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>47.47</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>0.3448</v>
+      </c>
+      <c r="K8">
+        <v>0.5395</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2017.999738995255</v>
+      </c>
+      <c r="D9">
+        <v>0.3204783595761644</v>
+      </c>
+      <c r="E9">
+        <v>-0.43516</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>47.47</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.946</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>0.1724</v>
+      </c>
+      <c r="K9">
+        <v>0.2393</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>2010.000072141449</v>
+      </c>
+      <c r="D10">
+        <v>0.1487161894732638</v>
+      </c>
+      <c r="E10">
+        <v>0.15153</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>290</v>
+      </c>
+      <c r="H10">
+        <v>47.47</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>0.7413999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.8679</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2000.000044578801</v>
+      </c>
+      <c r="D11">
+        <v>0.22472178396752</v>
+      </c>
+      <c r="E11">
+        <v>-4.3969</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>340</v>
+      </c>
+      <c r="H11">
+        <v>19.7</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="J11">
+        <v>16.03</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2001.128277265612</v>
+      </c>
+      <c r="D12">
+        <v>0.5684221074994241</v>
+      </c>
+      <c r="E12">
+        <v>-0.31478</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>340</v>
+      </c>
+      <c r="H12">
+        <v>19.7</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.00902</t>
+        </is>
+      </c>
+      <c r="J12">
+        <v>4.118</v>
+      </c>
+      <c r="K12">
+        <v>0.2197</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>2000.000196674083</v>
+      </c>
+      <c r="D13">
+        <v>0.04388629498155386</v>
+      </c>
+      <c r="E13">
+        <v>-2.7284</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>340</v>
+      </c>
+      <c r="H13">
+        <v>19.7</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.00388</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>5.294</v>
+      </c>
+      <c r="K13">
+        <v>0.1603</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Phénanthrène</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>2002.735876093304</v>
+      </c>
+      <c r="D14">
+        <v>0.7315041610253793</v>
+      </c>
+      <c r="E14">
+        <v>-0.050055</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>1700</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>0.4353</v>
+      </c>
+      <c r="K14">
+        <v>0.3277</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phénanthrène</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1997.045020235592</v>
+      </c>
+      <c r="D15">
+        <v>0.5505015206618016</v>
+      </c>
+      <c r="E15">
+        <v>-0.10278</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>1700</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="J15">
+        <v>0.9412</v>
+      </c>
+      <c r="K15">
+        <v>0.4146</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phénanthrène</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2003.412601153085</v>
+      </c>
+      <c r="D16">
+        <v>0.99290319879328</v>
+      </c>
+      <c r="E16">
+        <v>-0.002059</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>1700</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>1.603</v>
+      </c>
+      <c r="K16">
+        <v>0.5182</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pyrène</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>2010.000023242291</v>
+      </c>
+      <c r="D17">
+        <v>0.3258705144021785</v>
+      </c>
+      <c r="E17">
+        <v>-0.40421</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17">
+        <v>10.05</v>
+      </c>
+      <c r="K17">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pyrène</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1998.000044748397</v>
+      </c>
+      <c r="D18">
+        <v>0.01088442336989271</v>
+      </c>
+      <c r="E18">
+        <v>-0.53873</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="J18">
+        <v>12.25</v>
+      </c>
+      <c r="K18">
+        <v>8.648999999999999</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pyrène</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>2000.964373849327</v>
+      </c>
+      <c r="D19">
+        <v>0.01014626593433596</v>
+      </c>
+      <c r="E19">
+        <v>-2.109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="J19">
+        <v>53.25</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Benzo(a)anthracène</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>2014.001158466421</v>
+      </c>
+      <c r="D20">
+        <v>0.5329705095224682</v>
+      </c>
+      <c r="E20">
+        <v>-0.129</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.394</t>
+        </is>
+      </c>
+      <c r="J20">
+        <v>5.312</v>
+      </c>
+      <c r="K20">
+        <v>3.965</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Benzo(a)anthracène</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>2000.999934050714</v>
+      </c>
+      <c r="D21">
+        <v>0.001588558717288301</v>
+      </c>
+      <c r="E21">
+        <v>-0.23177</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.126</t>
+        </is>
+      </c>
+      <c r="J21">
+        <v>5.125</v>
+      </c>
+      <c r="K21">
+        <v>3.67</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Benzo(a)anthracène</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1995.999796973625</v>
+      </c>
+      <c r="D22">
+        <v>0.0007603527005527267</v>
+      </c>
+      <c r="E22">
+        <v>-0.79604</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>80</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>23.44</v>
+      </c>
+      <c r="K22">
+        <v>16.28</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Benzo(g,h,i)pérylène</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>2013.0000041538</v>
+      </c>
+      <c r="D23">
+        <v>0.07415325534225127</v>
+      </c>
+      <c r="E23">
+        <v>0.52817</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>110</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.439</t>
+        </is>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4.828</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Benzo(g,h,i)pérylène</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>2001.999816176873</v>
+      </c>
+      <c r="D24">
+        <v>0.02916181475480942</v>
+      </c>
+      <c r="E24">
+        <v>-0.17794</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>110</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.00451</t>
+        </is>
+      </c>
+      <c r="J24">
+        <v>5.318</v>
+      </c>
+      <c r="K24">
+        <v>3.907</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Benzo(g,h,i)pérylène</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>2001.222040692579</v>
+      </c>
+      <c r="D25">
+        <v>0.001203182481814009</v>
+      </c>
+      <c r="E25">
+        <v>-0.70266</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>110</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.668</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>14.09</v>
+      </c>
+      <c r="K25">
+        <v>13.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/results/data_contam/PAH/general_eval_PAH_dw.xlsx
+++ b/inst/results/data_contam/PAH/general_eval_PAH_dw.xlsx
@@ -383,7 +383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fluoranthène</t>
+          <t>Anthracene</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,19 +393,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>↓  →  blue</t>
+          <t>→  →  blue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>↓  →  blue</t>
+          <t>→  →  blue</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Benzo(a)pyrène</t>
+          <t>Benzo-anthra.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -415,19 +415,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>→  ↓  blue</t>
+          <t>→  →  blue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>→  ↓  blue</t>
+          <t>→  →  blue</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anthracène</t>
+          <t>Benzo-peryl.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,7 +437,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>→  →  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -449,29 +449,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Naphtalène</t>
+          <t>Benzo-pyr.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>→  ↓  blue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>→  →  blue</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>↓  →  blue</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>→  →  blue</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phénanthrène</t>
+          <t>Fluoranthene</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,7 +493,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pyrène</t>
+          <t>Naphtalene</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -515,7 +515,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Benzo(a)anthracène</t>
+          <t>Phenanthrene</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -525,19 +525,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>→  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>→  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Benzo(g,h,i)pérylène</t>
+          <t>Pyrene</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>→  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,55 +582,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>break_dates</t>
+          <t>rho</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>last_p_value</t>
+          <t>p.value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>last_slope</t>
+          <t>short_last_trend</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>short_last_trend</t>
+          <t>EAC_OSPAR_ng_gdw</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EAC_OSPAR_ng_gdw</t>
+          <t>pvalue</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EQS_VGE_ng_gww</t>
+          <t>median_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pvalue</t>
+          <t>median_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>median_1</t>
+          <t>long_term_trend</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>median_2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_trend</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
@@ -644,46 +634,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fluoranthène</t>
+          <t>Anthracene</t>
         </is>
       </c>
       <c r="C2">
-        <v>1998.250000000258</v>
+        <v>-0.01546984936307524</v>
       </c>
       <c r="D2">
-        <v>0.1105152583878463</v>
-      </c>
-      <c r="E2">
-        <v>-0.27795</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G2">
-        <v>110</v>
+        <v>0.9581393327681298</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>290</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
       </c>
       <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.394</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>9.545</v>
-      </c>
-      <c r="K2">
-        <v>8.249000000000001</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>0.3448</v>
+      </c>
+      <c r="I2">
+        <v>0.5395</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -692,51 +676,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fluoranthène</t>
+          <t>Benzo-anthra.</t>
         </is>
       </c>
       <c r="C3">
-        <v>2013.327989501731</v>
+        <v>-0.4549450549450549</v>
       </c>
       <c r="D3">
-        <v>0.4145617730512463</v>
-      </c>
-      <c r="E3">
-        <v>0.43174</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>110</v>
+        <v>0.1043802889166042</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.394</t>
+        </is>
       </c>
       <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.00665</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>16.36</v>
-      </c>
-      <c r="K3">
-        <v>7.669</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+        <v>5.312</v>
+      </c>
+      <c r="I3">
+        <v>3.965</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -745,51 +723,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fluoranthène</t>
+          <t>Benzo-peryl.</t>
         </is>
       </c>
       <c r="C4">
-        <v>2011.999956919248</v>
+        <v>0.7580718607767456</v>
       </c>
       <c r="D4">
-        <v>0.6878843369583573</v>
-      </c>
-      <c r="E4">
-        <v>0.52276</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G4">
+        <v>0.001679395419916606</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="F4">
         <v>110</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.439</t>
+        </is>
+      </c>
       <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>52.73</v>
-      </c>
-      <c r="K4">
-        <v>23.37</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4.828</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -803,46 +775,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Benzo(a)pyrène</t>
+          <t>Benzo-pyr.</t>
         </is>
       </c>
       <c r="C5">
-        <v>2013.000202366099</v>
+        <v>-0.5764579945915306</v>
       </c>
       <c r="D5">
-        <v>0.2606021462717063</v>
-      </c>
-      <c r="E5">
-        <v>-0.23342</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G5">
+        <v>0.03094108047072005</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="F5">
         <v>600</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
       <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <v>0.2891</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -851,51 +817,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benzo(a)pyrène</t>
+          <t>Fluoranthene</t>
         </is>
       </c>
       <c r="C6">
-        <v>2001.593091030837</v>
+        <v>-0.4505494505494506</v>
       </c>
       <c r="D6">
-        <v>0.02454747860055425</v>
-      </c>
-      <c r="E6">
-        <v>-0.10121</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>600</v>
+        <v>0.1080906931091413</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.394</t>
+        </is>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.076</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>0.0625</v>
-      </c>
-      <c r="K6">
-        <v>0.2758</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+        <v>9.545</v>
+      </c>
+      <c r="I6">
+        <v>8.249000000000001</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -904,51 +864,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Benzo(a)pyrène</t>
+          <t>Naphtalene</t>
         </is>
       </c>
       <c r="C7">
-        <v>2004.999629702628</v>
+        <v>-0.3354101966249685</v>
       </c>
       <c r="D7">
-        <v>0.047340441717313</v>
-      </c>
-      <c r="E7">
-        <v>-0.57358</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>600</v>
+        <v>0.5810906728217108</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>340</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
       </c>
       <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>0.5583</v>
-      </c>
-      <c r="K7">
-        <v>1.463</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>16.03</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -962,46 +916,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthracène</t>
+          <t>Phenanthrene</t>
         </is>
       </c>
       <c r="C8">
-        <v>2001.138442072049</v>
+        <v>-0.2</v>
       </c>
       <c r="D8">
-        <v>0.03463788907125066</v>
-      </c>
-      <c r="E8">
-        <v>0.061766</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G8">
-        <v>290</v>
+        <v>0.4923976317246129</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>1700</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
       </c>
       <c r="H8">
-        <v>47.47</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.198</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>0.3448</v>
-      </c>
-      <c r="K8">
-        <v>0.5395</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>0.4353</v>
+      </c>
+      <c r="I8">
+        <v>0.3277</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1010,51 +958,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anthracène</t>
+          <t>Pyrene</t>
         </is>
       </c>
       <c r="C9">
-        <v>2017.999738995255</v>
+        <v>-0.5252747252747252</v>
       </c>
       <c r="D9">
-        <v>0.3204783595761644</v>
-      </c>
-      <c r="E9">
-        <v>-0.43516</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G9">
-        <v>290</v>
+        <v>0.05671063848112966</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H9">
-        <v>47.47</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.946</t>
-        </is>
-      </c>
-      <c r="J9">
-        <v>0.1724</v>
-      </c>
-      <c r="K9">
-        <v>0.2393</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+        <v>10.05</v>
+      </c>
+      <c r="I9">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1063,51 +1005,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anthracène</t>
+          <t>Anthracene</t>
         </is>
       </c>
       <c r="C10">
-        <v>2010.000072141449</v>
+        <v>0.2191067436798644</v>
       </c>
       <c r="D10">
-        <v>0.1487161894732638</v>
-      </c>
-      <c r="E10">
-        <v>0.15153</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G10">
+        <v>0.4720100911508756</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F10">
         <v>290</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.946</t>
+        </is>
+      </c>
       <c r="H10">
-        <v>47.47</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.475</t>
-        </is>
-      </c>
-      <c r="J10">
-        <v>0.7413999999999999</v>
-      </c>
-      <c r="K10">
-        <v>0.8679</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+        <v>0.1724</v>
+      </c>
+      <c r="I10">
+        <v>0.2393</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1116,51 +1052,45 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Naphtalène</t>
+          <t>Benzo-anthra.</t>
         </is>
       </c>
       <c r="C11">
-        <v>2000.000044578801</v>
+        <v>-0.2141301222769543</v>
       </c>
       <c r="D11">
-        <v>0.22472178396752</v>
-      </c>
-      <c r="E11">
-        <v>-4.3969</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>340</v>
+        <v>0.4622812643559696</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.126</t>
+        </is>
       </c>
       <c r="H11">
-        <v>19.7</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="J11">
-        <v>16.03</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+        <v>5.125</v>
+      </c>
+      <c r="I11">
+        <v>3.67</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1174,46 +1104,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naphtalène</t>
+          <t>Benzo-peryl.</t>
         </is>
       </c>
       <c r="C12">
-        <v>2001.128277265612</v>
+        <v>0.3356478431324801</v>
       </c>
       <c r="D12">
-        <v>0.5684221074994241</v>
-      </c>
-      <c r="E12">
-        <v>-0.31478</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>340</v>
+        <v>0.2622128473308455</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>110</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00451</t>
+        </is>
       </c>
       <c r="H12">
-        <v>19.7</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.00902</t>
-        </is>
-      </c>
-      <c r="J12">
-        <v>4.118</v>
-      </c>
-      <c r="K12">
-        <v>0.2197</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>5.318</v>
+      </c>
+      <c r="I12">
+        <v>3.907</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1222,51 +1146,45 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naphtalène</t>
+          <t>Benzo-pyr.</t>
         </is>
       </c>
       <c r="C13">
-        <v>2000.000196674083</v>
+        <v>-0.007174913862873427</v>
       </c>
       <c r="D13">
-        <v>0.04388629498155386</v>
-      </c>
-      <c r="E13">
-        <v>-2.7284</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>340</v>
+        <v>0.9797537868846934</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>600</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
       </c>
       <c r="H13">
-        <v>19.7</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.00388</t>
-        </is>
-      </c>
-      <c r="J13">
-        <v>5.294</v>
-      </c>
-      <c r="K13">
-        <v>0.1603</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+        <v>0.0625</v>
+      </c>
+      <c r="I13">
+        <v>0.2758</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1275,48 +1193,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Phénanthrène</t>
+          <t>Fluoranthene</t>
         </is>
       </c>
       <c r="C14">
-        <v>2002.735876093304</v>
+        <v>0.4682320441988951</v>
       </c>
       <c r="D14">
-        <v>0.7315041610253793</v>
-      </c>
-      <c r="E14">
-        <v>-0.050055</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>1700</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>0.4353</v>
-      </c>
-      <c r="K14">
-        <v>0.3277</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+        <v>0.1065873618186009</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00665</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>16.36</v>
+      </c>
+      <c r="I14">
+        <v>7.669</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1330,43 +1245,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Phénanthrène</t>
+          <t>Naphtalene</t>
         </is>
       </c>
       <c r="C15">
-        <v>1997.045020235592</v>
+        <v>-0.03603749850782235</v>
       </c>
       <c r="D15">
-        <v>0.5505015206618016</v>
-      </c>
-      <c r="E15">
-        <v>-0.10278</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>1700</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>0.9412</v>
-      </c>
-      <c r="K15">
-        <v>0.4146</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>0.9388605613942138</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>340</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00902</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>4.118</v>
+      </c>
+      <c r="I15">
+        <v>0.2197</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1375,48 +1287,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Phénanthrène</t>
+          <t>Phenanthrene</t>
         </is>
       </c>
       <c r="C16">
-        <v>2003.412601153085</v>
+        <v>0.1019616719112596</v>
       </c>
       <c r="D16">
-        <v>0.99290319879328</v>
-      </c>
-      <c r="E16">
-        <v>-0.002059</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G16">
+        <v>0.7403040072323204</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F16">
         <v>1700</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>1.603</v>
-      </c>
-      <c r="K16">
-        <v>0.5182</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>0.9412</v>
+      </c>
+      <c r="I16">
+        <v>0.4146</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1425,48 +1334,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pyrène</t>
+          <t>Pyrene</t>
         </is>
       </c>
       <c r="C17">
-        <v>2010.000023242291</v>
+        <v>0.4965521964826946</v>
       </c>
       <c r="D17">
-        <v>0.3258705144021785</v>
-      </c>
-      <c r="E17">
-        <v>-0.40421</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G17">
+        <v>0.08433356789664129</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F17">
         <v>100</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>10.05</v>
-      </c>
-      <c r="K17">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>12.25</v>
+      </c>
+      <c r="I17">
+        <v>8.648999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1475,48 +1381,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pyrène</t>
+          <t>Anthracene</t>
         </is>
       </c>
       <c r="C18">
-        <v>1998.000044748397</v>
+        <v>0.4819130274282408</v>
       </c>
       <c r="D18">
-        <v>0.01088442336989271</v>
-      </c>
-      <c r="E18">
-        <v>-0.53873</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>12.25</v>
-      </c>
-      <c r="K18">
-        <v>8.648999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+        <v>0.05012695249038397</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>290</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>0.7413999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.8679</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1530,43 +1433,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyrène</t>
+          <t>Benzo-anthra.</t>
         </is>
       </c>
       <c r="C19">
-        <v>2000.964373849327</v>
+        <v>-0.1594114340093417</v>
       </c>
       <c r="D19">
-        <v>0.01014626593433596</v>
-      </c>
-      <c r="E19">
-        <v>-2.109</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="J19">
-        <v>53.25</v>
-      </c>
-      <c r="K19">
-        <v>28</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+        <v>0.5411104051163399</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>23.44</v>
+      </c>
+      <c r="I19">
+        <v>16.28</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1575,48 +1475,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Benzo(a)anthracène</t>
+          <t>Benzo-peryl.</t>
         </is>
       </c>
       <c r="C20">
-        <v>2014.001158466421</v>
+        <v>-0.3840490797546013</v>
       </c>
       <c r="D20">
-        <v>0.5329705095224682</v>
-      </c>
-      <c r="E20">
-        <v>-0.129</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>80</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.394</t>
-        </is>
-      </c>
-      <c r="J20">
-        <v>5.312</v>
-      </c>
-      <c r="K20">
-        <v>3.965</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+        <v>0.1280272976004719</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.668</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>14.09</v>
+      </c>
+      <c r="I20">
+        <v>13.1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1625,48 +1522,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Benzo(a)anthracène</t>
+          <t>Benzo-pyr.</t>
         </is>
       </c>
       <c r="C21">
-        <v>2000.999934050714</v>
+        <v>-0.2257668711656442</v>
       </c>
       <c r="D21">
-        <v>0.001588558717288301</v>
-      </c>
-      <c r="E21">
-        <v>-0.23177</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>80</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.126</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>5.125</v>
-      </c>
-      <c r="K21">
-        <v>3.67</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+        <v>0.3835979274558916</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>0.5583</v>
+      </c>
+      <c r="I21">
+        <v>1.463</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1680,43 +1574,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Benzo(a)anthracène</t>
+          <t>Fluoranthene</t>
         </is>
       </c>
       <c r="C22">
-        <v>1995.999796973625</v>
+        <v>0.1704476102099885</v>
       </c>
       <c r="D22">
-        <v>0.0007603527005527267</v>
-      </c>
-      <c r="E22">
-        <v>-0.79604</v>
-      </c>
-      <c r="F22" t="inlineStr">
+        <v>0.5130754995466003</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>110</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>52.73</v>
+      </c>
+      <c r="I22">
+        <v>23.37</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="G22">
-        <v>80</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.475</t>
-        </is>
-      </c>
-      <c r="J22">
-        <v>23.44</v>
-      </c>
-      <c r="K22">
-        <v>16.28</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1725,48 +1616,45 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Benzo(g,h,i)pérylène</t>
+          <t>Naphtalene</t>
         </is>
       </c>
       <c r="C23">
-        <v>2013.0000041538</v>
+        <v>-0.8619322310183947</v>
       </c>
       <c r="D23">
-        <v>0.07415325534225127</v>
-      </c>
-      <c r="E23">
-        <v>0.52817</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>110</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.439</t>
-        </is>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>4.828</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+        <v>0.002805928967837715</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>340</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.00388</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>5.294</v>
+      </c>
+      <c r="I23">
+        <v>0.1603</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1775,48 +1663,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benzo(g,h,i)pérylène</t>
+          <t>Phenanthrene</t>
         </is>
       </c>
       <c r="C24">
-        <v>2001.999816176873</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="D24">
-        <v>0.02916181475480942</v>
-      </c>
-      <c r="E24">
-        <v>-0.17794</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>0.6903705844675487</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>1700</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>1.603</v>
+      </c>
+      <c r="I24">
+        <v>0.5182</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="G24">
-        <v>110</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.00451</t>
-        </is>
-      </c>
-      <c r="J24">
-        <v>5.318</v>
-      </c>
-      <c r="K24">
-        <v>3.907</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1830,43 +1715,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Benzo(g,h,i)pérylène</t>
+          <t>Pyrene</t>
         </is>
       </c>
       <c r="C25">
-        <v>2001.222040692579</v>
+        <v>-0.04537094660265881</v>
       </c>
       <c r="D25">
-        <v>0.001203182481814009</v>
-      </c>
-      <c r="E25">
-        <v>-0.70266</v>
-      </c>
-      <c r="F25" t="inlineStr">
+        <v>0.8627236024138826</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>53.25</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
       </c>
-      <c r="G25">
-        <v>110</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.668</t>
-        </is>
-      </c>
-      <c r="J25">
-        <v>14.09</v>
-      </c>
-      <c r="K25">
-        <v>13.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
